--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Unc5a</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.43055835988951</v>
+        <v>2.75977</v>
       </c>
       <c r="H2">
-        <v>2.43055835988951</v>
+        <v>8.279310000000001</v>
       </c>
       <c r="I2">
-        <v>0.06386387387197556</v>
+        <v>0.06698501710740076</v>
       </c>
       <c r="J2">
-        <v>0.06386387387197556</v>
+        <v>0.06698501710740076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.774914570038666</v>
+        <v>0.837459</v>
       </c>
       <c r="N2">
-        <v>0.774914570038666</v>
+        <v>2.512377</v>
       </c>
       <c r="O2">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="P2">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="Q2">
-        <v>1.883475086407665</v>
+        <v>2.31119422443</v>
       </c>
       <c r="R2">
-        <v>1.883475086407665</v>
+        <v>20.80074801987</v>
       </c>
       <c r="S2">
-        <v>0.0121860894495879</v>
+        <v>0.01246596347070306</v>
       </c>
       <c r="T2">
-        <v>0.0121860894495879</v>
+        <v>0.01246596347070306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.43055835988951</v>
+        <v>2.75977</v>
       </c>
       <c r="H3">
-        <v>2.43055835988951</v>
+        <v>8.279310000000001</v>
       </c>
       <c r="I3">
-        <v>0.06386387387197556</v>
+        <v>0.06698501710740076</v>
       </c>
       <c r="J3">
-        <v>0.06386387387197556</v>
+        <v>0.06698501710740076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.77109051913053</v>
+        <v>1.864510666666667</v>
       </c>
       <c r="N3">
-        <v>1.77109051913053</v>
+        <v>5.593532</v>
       </c>
       <c r="O3">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="P3">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="Q3">
-        <v>4.304738867393762</v>
+        <v>5.145620602546667</v>
       </c>
       <c r="R3">
-        <v>4.304738867393762</v>
+        <v>46.31058542292</v>
       </c>
       <c r="S3">
-        <v>0.02785167336363903</v>
+        <v>0.02775410122931735</v>
       </c>
       <c r="T3">
-        <v>0.02785167336363903</v>
+        <v>0.02775410122931735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.43055835988951</v>
+        <v>2.75977</v>
       </c>
       <c r="H4">
-        <v>2.43055835988951</v>
+        <v>8.279310000000001</v>
       </c>
       <c r="I4">
-        <v>0.06386387387197556</v>
+        <v>0.06698501710740076</v>
       </c>
       <c r="J4">
-        <v>0.06386387387197556</v>
+        <v>0.06698501710740076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.432188078039636</v>
+        <v>0.4771786666666666</v>
       </c>
       <c r="N4">
-        <v>0.432188078039636</v>
+        <v>1.431536</v>
       </c>
       <c r="O4">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="P4">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="Q4">
-        <v>1.050458346123817</v>
+        <v>1.316903368906667</v>
       </c>
       <c r="R4">
-        <v>1.050458346123817</v>
+        <v>11.85213032016</v>
       </c>
       <c r="S4">
-        <v>0.006796468645277489</v>
+        <v>0.007103024539309338</v>
       </c>
       <c r="T4">
-        <v>0.006796468645277489</v>
+        <v>0.007103024539309338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.43055835988951</v>
+        <v>2.75977</v>
       </c>
       <c r="H5">
-        <v>2.43055835988951</v>
+        <v>8.279310000000001</v>
       </c>
       <c r="I5">
-        <v>0.06386387387197556</v>
+        <v>0.06698501710740076</v>
       </c>
       <c r="J5">
-        <v>0.06386387387197556</v>
+        <v>0.06698501710740076</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.08291655689377</v>
+        <v>1.320881333333333</v>
       </c>
       <c r="N5">
-        <v>1.08291655689377</v>
+        <v>3.962644</v>
       </c>
       <c r="O5">
-        <v>0.2666553307995306</v>
+        <v>0.2935272500796106</v>
       </c>
       <c r="P5">
-        <v>0.2666553307995306</v>
+        <v>0.2935272500796106</v>
       </c>
       <c r="Q5">
-        <v>2.632091890420917</v>
+        <v>3.645328677293334</v>
       </c>
       <c r="R5">
-        <v>2.632091890420917</v>
+        <v>32.80795809564</v>
       </c>
       <c r="S5">
-        <v>0.01702964241347114</v>
+        <v>0.01966192786807102</v>
       </c>
       <c r="T5">
-        <v>0.01702964241347114</v>
+        <v>0.01966192786807102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.737873213683</v>
+        <v>18.996877</v>
       </c>
       <c r="H6">
-        <v>18.737873213683</v>
+        <v>56.99063100000001</v>
       </c>
       <c r="I6">
-        <v>0.4923449653774697</v>
+        <v>0.4610913702345443</v>
       </c>
       <c r="J6">
-        <v>0.4923449653774697</v>
+        <v>0.4610913702345442</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.774914570038666</v>
+        <v>0.837459</v>
       </c>
       <c r="N6">
-        <v>0.774914570038666</v>
+        <v>2.512377</v>
       </c>
       <c r="O6">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="P6">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="Q6">
-        <v>14.5202509648202</v>
+        <v>15.909105615543</v>
       </c>
       <c r="R6">
-        <v>14.5202509648202</v>
+        <v>143.181950539887</v>
       </c>
       <c r="S6">
-        <v>0.09394606722685653</v>
+        <v>0.08580946047657564</v>
       </c>
       <c r="T6">
-        <v>0.09394606722685653</v>
+        <v>0.08580946047657563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.737873213683</v>
+        <v>18.996877</v>
       </c>
       <c r="H7">
-        <v>18.737873213683</v>
+        <v>56.99063100000001</v>
       </c>
       <c r="I7">
-        <v>0.4923449653774697</v>
+        <v>0.4610913702345443</v>
       </c>
       <c r="J7">
-        <v>0.4923449653774697</v>
+        <v>0.4610913702345442</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.77109051913053</v>
+        <v>1.864510666666667</v>
       </c>
       <c r="N7">
-        <v>1.77109051913053</v>
+        <v>5.593532</v>
       </c>
       <c r="O7">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="P7">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="Q7">
-        <v>33.18646959742387</v>
+        <v>35.41987979985467</v>
       </c>
       <c r="R7">
-        <v>33.18646959742387</v>
+        <v>318.7789181986921</v>
       </c>
       <c r="S7">
-        <v>0.2147165576803941</v>
+        <v>0.1910453578736237</v>
       </c>
       <c r="T7">
-        <v>0.2147165576803941</v>
+        <v>0.1910453578736237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.737873213683</v>
+        <v>18.996877</v>
       </c>
       <c r="H8">
-        <v>18.737873213683</v>
+        <v>56.99063100000001</v>
       </c>
       <c r="I8">
-        <v>0.4923449653774697</v>
+        <v>0.4610913702345443</v>
       </c>
       <c r="J8">
-        <v>0.4923449653774697</v>
+        <v>0.4610913702345442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.432188078039636</v>
+        <v>0.4771786666666666</v>
       </c>
       <c r="N8">
-        <v>0.432188078039636</v>
+        <v>1.431536</v>
       </c>
       <c r="O8">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="P8">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="Q8">
-        <v>8.098285410772032</v>
+        <v>9.064904437690666</v>
       </c>
       <c r="R8">
-        <v>8.098285410772032</v>
+        <v>81.584139939216</v>
       </c>
       <c r="S8">
-        <v>0.05239593086000644</v>
+        <v>0.04889366994395952</v>
       </c>
       <c r="T8">
-        <v>0.05239593086000644</v>
+        <v>0.04889366994395952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.737873213683</v>
+        <v>18.996877</v>
       </c>
       <c r="H9">
-        <v>18.737873213683</v>
+        <v>56.99063100000001</v>
       </c>
       <c r="I9">
-        <v>0.4923449653774697</v>
+        <v>0.4610913702345443</v>
       </c>
       <c r="J9">
-        <v>0.4923449653774697</v>
+        <v>0.4610913702345442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.08291655689377</v>
+        <v>1.320881333333333</v>
       </c>
       <c r="N9">
-        <v>1.08291655689377</v>
+        <v>3.962644</v>
       </c>
       <c r="O9">
-        <v>0.2666553307995306</v>
+        <v>0.2935272500796106</v>
       </c>
       <c r="P9">
-        <v>0.2666553307995306</v>
+        <v>0.2935272500796106</v>
       </c>
       <c r="Q9">
-        <v>20.29155314407359</v>
+        <v>25.09262022092934</v>
       </c>
       <c r="R9">
-        <v>20.29155314407359</v>
+        <v>225.833581988364</v>
       </c>
       <c r="S9">
-        <v>0.1312864096102126</v>
+        <v>0.1353428819403854</v>
       </c>
       <c r="T9">
-        <v>0.1312864096102126</v>
+        <v>0.1353428819403854</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>16.8899919533485</v>
+        <v>0.07467966666666666</v>
       </c>
       <c r="H10">
-        <v>16.8899919533485</v>
+        <v>0.224039</v>
       </c>
       <c r="I10">
-        <v>0.4437911607505549</v>
+        <v>0.001812621613120533</v>
       </c>
       <c r="J10">
-        <v>0.4437911607505549</v>
+        <v>0.001812621613120533</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.774914570038666</v>
+        <v>0.837459</v>
       </c>
       <c r="N10">
-        <v>0.774914570038666</v>
+        <v>2.512377</v>
       </c>
       <c r="O10">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="P10">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="Q10">
-        <v>13.08830085248558</v>
+        <v>0.06254115896699999</v>
       </c>
       <c r="R10">
-        <v>13.08830085248558</v>
+        <v>0.5628704307029999</v>
       </c>
       <c r="S10">
-        <v>0.08468134571172406</v>
+        <v>0.0003373302835638287</v>
       </c>
       <c r="T10">
-        <v>0.08468134571172406</v>
+        <v>0.0003373302835638287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>16.8899919533485</v>
+        <v>0.07467966666666666</v>
       </c>
       <c r="H11">
-        <v>16.8899919533485</v>
+        <v>0.224039</v>
       </c>
       <c r="I11">
-        <v>0.4437911607505549</v>
+        <v>0.001812621613120533</v>
       </c>
       <c r="J11">
-        <v>0.4437911607505549</v>
+        <v>0.001812621613120533</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.77109051913053</v>
+        <v>1.864510666666667</v>
       </c>
       <c r="N11">
-        <v>1.77109051913053</v>
+        <v>5.593532</v>
       </c>
       <c r="O11">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="P11">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="Q11">
-        <v>29.91370461676647</v>
+        <v>0.1392410350831111</v>
       </c>
       <c r="R11">
-        <v>29.91370461676647</v>
+        <v>1.253169315748</v>
       </c>
       <c r="S11">
-        <v>0.1935417584544394</v>
+        <v>0.000751028900393273</v>
       </c>
       <c r="T11">
-        <v>0.1935417584544394</v>
+        <v>0.0007510289003932729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>16.8899919533485</v>
+        <v>0.07467966666666666</v>
       </c>
       <c r="H12">
-        <v>16.8899919533485</v>
+        <v>0.224039</v>
       </c>
       <c r="I12">
-        <v>0.4437911607505549</v>
+        <v>0.001812621613120533</v>
       </c>
       <c r="J12">
-        <v>0.4437911607505549</v>
+        <v>0.001812621613120533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.432188078039636</v>
+        <v>0.4771786666666666</v>
       </c>
       <c r="N12">
-        <v>0.432188078039636</v>
+        <v>1.431536</v>
       </c>
       <c r="O12">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="P12">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="Q12">
-        <v>7.299653160422605</v>
+        <v>0.0356355437671111</v>
       </c>
       <c r="R12">
-        <v>7.299653160422605</v>
+        <v>0.320719893904</v>
       </c>
       <c r="S12">
-        <v>0.04722877780854455</v>
+        <v>0.0001922085916292933</v>
       </c>
       <c r="T12">
-        <v>0.04722877780854455</v>
+        <v>0.0001922085916292933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07467966666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.224039</v>
+      </c>
+      <c r="I13">
+        <v>0.001812621613120533</v>
+      </c>
+      <c r="J13">
+        <v>0.001812621613120533</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.320881333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.962644</v>
+      </c>
+      <c r="O13">
+        <v>0.2935272500796106</v>
+      </c>
+      <c r="P13">
+        <v>0.2935272500796106</v>
+      </c>
+      <c r="Q13">
+        <v>0.09864297767955554</v>
+      </c>
+      <c r="R13">
+        <v>0.887786799116</v>
+      </c>
+      <c r="S13">
+        <v>0.0005320538375341379</v>
+      </c>
+      <c r="T13">
+        <v>0.0005320538375341377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>19.36848366666667</v>
+      </c>
+      <c r="H14">
+        <v>58.105451</v>
+      </c>
+      <c r="I14">
+        <v>0.4701109910449345</v>
+      </c>
+      <c r="J14">
+        <v>0.4701109910449345</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.837459</v>
+      </c>
+      <c r="N14">
+        <v>2.512377</v>
+      </c>
+      <c r="O14">
+        <v>0.1861007731134217</v>
+      </c>
+      <c r="P14">
+        <v>0.1861007731134217</v>
+      </c>
+      <c r="Q14">
+        <v>16.220310963003</v>
+      </c>
+      <c r="R14">
+        <v>145.982798667027</v>
+      </c>
+      <c r="S14">
+        <v>0.08748801888257918</v>
+      </c>
+      <c r="T14">
+        <v>0.08748801888257916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>19.36848366666667</v>
+      </c>
+      <c r="H15">
+        <v>58.105451</v>
+      </c>
+      <c r="I15">
+        <v>0.4701109910449345</v>
+      </c>
+      <c r="J15">
+        <v>0.4701109910449345</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.864510666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.593532</v>
+      </c>
+      <c r="O15">
+        <v>0.4143329721752205</v>
+      </c>
+      <c r="P15">
+        <v>0.4143329721752205</v>
+      </c>
+      <c r="Q15">
+        <v>36.11274439365911</v>
+      </c>
+      <c r="R15">
+        <v>325.014699542932</v>
+      </c>
+      <c r="S15">
+        <v>0.1947824841718862</v>
+      </c>
+      <c r="T15">
+        <v>0.1947824841718861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>16.8899919533485</v>
-      </c>
-      <c r="H13">
-        <v>16.8899919533485</v>
-      </c>
-      <c r="I13">
-        <v>0.4437911607505549</v>
-      </c>
-      <c r="J13">
-        <v>0.4437911607505549</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.08291655689377</v>
-      </c>
-      <c r="N13">
-        <v>1.08291655689377</v>
-      </c>
-      <c r="O13">
-        <v>0.2666553307995306</v>
-      </c>
-      <c r="P13">
-        <v>0.2666553307995306</v>
-      </c>
-      <c r="Q13">
-        <v>18.29045193208364</v>
-      </c>
-      <c r="R13">
-        <v>18.29045193208364</v>
-      </c>
-      <c r="S13">
-        <v>0.1183392787758469</v>
-      </c>
-      <c r="T13">
-        <v>0.1183392787758469</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.36848366666667</v>
+      </c>
+      <c r="H16">
+        <v>58.105451</v>
+      </c>
+      <c r="I16">
+        <v>0.4701109910449345</v>
+      </c>
+      <c r="J16">
+        <v>0.4701109910449345</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4771786666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.431536</v>
+      </c>
+      <c r="O16">
+        <v>0.1060390046317472</v>
+      </c>
+      <c r="P16">
+        <v>0.1060390046317472</v>
+      </c>
+      <c r="Q16">
+        <v>9.242227211415111</v>
+      </c>
+      <c r="R16">
+        <v>83.180044902736</v>
+      </c>
+      <c r="S16">
+        <v>0.0498501015568491</v>
+      </c>
+      <c r="T16">
+        <v>0.0498501015568491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.36848366666667</v>
+      </c>
+      <c r="H17">
+        <v>58.105451</v>
+      </c>
+      <c r="I17">
+        <v>0.4701109910449345</v>
+      </c>
+      <c r="J17">
+        <v>0.4701109910449345</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.320881333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.962644</v>
+      </c>
+      <c r="O17">
+        <v>0.2935272500796106</v>
+      </c>
+      <c r="P17">
+        <v>0.2935272500796106</v>
+      </c>
+      <c r="Q17">
+        <v>25.58346853027156</v>
+      </c>
+      <c r="R17">
+        <v>230.251216772444</v>
+      </c>
+      <c r="S17">
+        <v>0.1379903864336201</v>
+      </c>
+      <c r="T17">
+        <v>0.1379903864336201</v>
       </c>
     </row>
   </sheetData>
